--- a/ValueSet-States-TerritoriesProvinces-VS.xlsx
+++ b/ValueSet-States-TerritoriesProvinces-VS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T19:59:17+00:00</t>
+    <t>2021-09-22T20:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-States-TerritoriesProvinces-VS.xlsx
+++ b/ValueSet-States-TerritoriesProvinces-VS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T20:03:14+00:00</t>
+    <t>2021-09-22T20:23:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
